--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1399.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1399.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.504639834241852</v>
+        <v>1.185348510742188</v>
       </c>
       <c r="B1">
-        <v>2.436124103089009</v>
+        <v>2.087687730789185</v>
       </c>
       <c r="C1">
-        <v>2.825496739960542</v>
+        <v>6.415035724639893</v>
       </c>
       <c r="D1">
-        <v>3.260250430580661</v>
+        <v>2.306306123733521</v>
       </c>
       <c r="E1">
-        <v>1.673489814239884</v>
+        <v>1.196385860443115</v>
       </c>
     </row>
   </sheetData>
